--- a/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/05,25/14,05,25 ПОКОМ ЗПФ НОВОРОССИЙСК и СОЧИ на погрузку 18,05/Сочи пок зпф.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/05,25/14,05,25 ПОКОМ ЗПФ НОВОРОССИЙСК и СОЧИ на погрузку 18,05/Сочи пок зпф.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\РАБОЧИЙ СТОЛ\14,05,25 ПОКОМ ЗПФ НОВОРОССИЙСК и СОЧИ на погрузку 18,05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\Краснодар_филиалы\2025\05,25\14,05,25 ПОКОМ ЗПФ НОВОРОССИЙСК и СОЧИ на погрузку 18,05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825F68EA-5F10-43B6-8535-9FDA4C8CCC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2479943D-6067-4AC5-94FA-C9512786547F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,12 +21,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AH$61</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="106">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -602,11 +610,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="TDSheet"/>
     </sheetNames>
@@ -1814,10 +1819,10 @@
   <dimension ref="A1:AS492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ15" sqref="AQ15"/>
+      <selection pane="bottomRight" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8237,7 +8242,9 @@
       <c r="A60" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="29"/>
+      <c r="B60" s="29" t="s">
+        <v>38</v>
+      </c>
       <c r="C60" s="30">
         <v>0.22</v>
       </c>
